--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
   <si>
     <t>Source:</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/totalenergy/data/monthly/#electricity</t>
   </si>
   <si>
     <t>U.S. Energy Information Administration</t>
@@ -90,9 +87,6 @@
     <t>Net Generation: Electric Power Sector</t>
   </si>
   <si>
-    <t>Billion Kilowatthours</t>
-  </si>
-  <si>
     <t>Next Update: October 26, 2016</t>
   </si>
   <si>
@@ -124,6 +118,15 @@
   </si>
   <si>
     <t>Trans and Dist Loss Perc (dimensionless)</t>
+  </si>
+  <si>
+    <t>(Billion Kilowatthours)</t>
+  </si>
+  <si>
+    <t>June 2020 Monthly Energy Review</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/totalenergy/data/monthly/</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,10 +235,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -244,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -291,10 +291,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Calculations!$D$2:$D$17</c:f>
+              <c:f>Calculations!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.6944071098814603E-2</c:v>
                 </c:pt>
@@ -341,7 +341,19 @@
                   <c:v>6.18602525829927E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3923968962333539E-2</c:v>
+                  <c:v>6.2284686986993069E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1476826137713443E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8315084670271959E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.456342836151426E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6105782903553054E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,17 +748,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,44 +766,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" location="electricity"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -800,2664 +812,2819 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>1949</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>291.10000000000002</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
         <v>5.0250000000000004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>296.12400000000002</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>1.764</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>1.5880000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>43.201000000000001</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>254.511</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
         <v>254.511</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>1950</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>329.14100000000002</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
         <v>4.9459999999999997</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>334.08800000000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>1.9330000000000001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>1.786</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>44.43</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>291.44299999999998</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
         <v>291.44299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>1951</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>370.673</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
         <v>4.6260000000000003</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>375.298</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>2.387</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>2.1869999999999998</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>47.201000000000001</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <v>330.28500000000003</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
         <v>330.28500000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>1952</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>399.22399999999999</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
         <v>4.6059999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>403.82900000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>2.5059999999999998</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>0.23699999999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>2.2690000000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>49.933999999999997</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <v>356.16399999999999</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16">
         <v>356.16399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
         <v>1953</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>442.66500000000002</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
         <v>4.3840000000000003</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>447.04899999999998</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>2.4369999999999998</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>0.42899999999999999</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>2.008</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>52.84</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <v>396.21699999999998</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17">
         <v>396.21699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
         <v>1954</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>471.68599999999998</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
         <v>4.5709999999999997</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>476.25799999999998</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>2.6880000000000002</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>2.34</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>54.433999999999997</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>424.16399999999999</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18">
         <v>424.16399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
         <v>1955</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>547.03800000000001</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>3.2610000000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>550.29899999999998</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>4.5670000000000002</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>0.5</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>4.0679999999999996</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>57.618000000000002</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>496.74799999999999</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19">
         <v>496.74799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
         <v>1956</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>600.66800000000001</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
         <v>3.2080000000000002</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20">
         <v>603.87599999999998</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>5.1790000000000003</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>0.63100000000000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>4.548</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20">
         <v>62.143999999999998</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>546.28</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20">
         <v>546.28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
         <v>1957</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>631.51700000000005</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>3.125</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <v>634.64200000000005</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>4.8559999999999999</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>1.254</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>3.601</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21">
         <v>62.423999999999999</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <v>575.82000000000005</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21">
         <v>575.82000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>1958</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>645.09799999999996</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
         <v>3.3519999999999999</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>648.45100000000002</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>4.0780000000000003</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>0.76</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>3.3180000000000001</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>63.905999999999999</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22">
         <v>587.86300000000006</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22">
         <v>587.86300000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>1959</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>710.00599999999997</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>3.3730000000000002</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>713.37900000000002</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>4.3929999999999998</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>0.83799999999999997</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>3.5539999999999998</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23">
         <v>70.045000000000002</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23">
         <v>646.88800000000003</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23">
         <v>646.88800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
         <v>1960</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>755.54899999999998</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
         <v>3.6070000000000002</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <v>759.15599999999995</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>5.3230000000000004</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <v>0.78800000000000003</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>4.5350000000000001</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <v>75.616</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24">
         <v>688.07500000000005</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
         <v>688.07500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>1961</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>793.76</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>3.3650000000000002</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>797.12400000000002</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>3.17</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>2.254</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <v>77.427999999999997</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25">
         <v>721.95</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25">
         <v>721.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
         <v>1962</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>854.53499999999997</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
         <v>3.4089999999999998</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26">
         <v>857.94399999999996</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>2.1970000000000001</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26">
         <v>1.661</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>0.53600000000000003</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26">
         <v>80.88</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26">
         <v>777.6</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26">
         <v>777.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
         <v>1963</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>916.79300000000001</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
         <v>3.2349999999999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27">
         <v>920.02800000000002</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>2.0830000000000002</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>1.9850000000000001</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27">
         <v>87.513000000000005</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27">
         <v>832.61300000000006</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="6">
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27">
         <v>832.61300000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
         <v>1964</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>983.99</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
         <v>3.2280000000000002</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28">
         <v>987.21799999999996</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>6.2089999999999996</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <v>4.2530000000000001</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>1.9550000000000001</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28">
         <v>93.114999999999995</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28">
         <v>896.05899999999997</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28">
         <v>896.05899999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
         <v>1965</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>1055.252</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
         <v>3.1339999999999999</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29">
         <v>1058.386</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>3.5579999999999998</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>3.6989999999999998</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29">
         <v>104.455</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29">
         <v>953.78899999999999</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
         <v>953.78899999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
         <v>1966</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>1144.3499999999999</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
         <v>3.1819999999999999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <v>1147.5319999999999</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>4.2679999999999998</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <v>3.1760000000000002</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>1.0920000000000001</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>113.479</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30">
         <v>1035.145</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="6">
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
         <v>1035.145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
         <v>1967</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>1214.365</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
         <v>3.431</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>1217.796</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>4.0510000000000002</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31">
         <v>118.279</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31">
         <v>1099.2170000000001</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31">
         <v>1099.2170000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
         <v>1968</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>1329.443</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
         <v>3.383</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>1332.826</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>3.6539999999999999</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32">
         <v>4.2850000000000001</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <v>-0.63100000000000001</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32">
         <v>129.32400000000001</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32">
         <v>1202.8710000000001</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32">
         <v>1202.8710000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
         <v>1969</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>1442.182</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
         <v>3.2759999999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>1445.4580000000001</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>4.9020000000000001</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <v>3.83</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <v>1.0720000000000001</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33">
         <v>132.696</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33">
         <v>1313.8330000000001</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="6">
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33">
         <v>1313.8330000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
         <v>1970</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34">
         <v>1531.8679999999999</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
         <v>3.2440000000000002</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>1535.1110000000001</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>6.17</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <v>4.2089999999999996</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>1.96</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34">
         <v>144.77199999999999</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34">
         <v>1392.3</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="6">
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34">
         <v>1392.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
         <v>1971</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>1612.633</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
         <v>3.2210000000000001</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35">
         <v>1615.854</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>7.0439999999999996</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>3.5139999999999998</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>3.53</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35">
         <v>149.84399999999999</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35">
         <v>1469.54</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35">
         <v>1469.54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
         <v>1972</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>1749.662</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
         <v>3.3159999999999998</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>1752.9780000000001</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>10.494999999999999</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <v>2.8090000000000002</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>7.6870000000000003</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>165.50399999999999</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36">
         <v>1595.1610000000001</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36">
         <v>1595.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
         <v>1973</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>1860.71</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
         <v>3.347</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37">
         <v>1864.057</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>16.847999999999999</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <v>2.57</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>14.278</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37">
         <v>165.42599999999999</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37">
         <v>1712.9090000000001</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
         <v>1712.9090000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
         <v>1974</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38">
         <v>1867.14</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
         <v>3.18</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>1870.319</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>15.42</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>2.726</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>12.694000000000001</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38">
         <v>177.089</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38">
         <v>1705.924</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="6">
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38">
         <v>1705.924</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
         <v>1975</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>1917.6489999999999</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
         <v>3.1059999999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39">
         <v>1920.7550000000001</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>11.268000000000001</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <v>5.0830000000000002</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>6.1849999999999996</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39">
         <v>179.84899999999999</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39">
         <v>1747.0909999999999</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="6">
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39">
         <v>1747.0909999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
         <v>1976</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40">
         <v>2037.6959999999999</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
         <v>3.2170000000000001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40">
         <v>2040.914</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>10.988</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <v>2.3780000000000001</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <v>8.61</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40">
         <v>194.27799999999999</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40">
         <v>1855.2460000000001</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="6">
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40">
         <v>1855.2460000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
         <v>1977</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>2124.3229999999999</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
         <v>3.1240000000000001</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41">
         <v>2127.4470000000001</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>20.158999999999999</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <v>2.7440000000000002</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>17.416</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41">
         <v>196.50200000000001</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41">
         <v>1948.3610000000001</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41">
         <v>1948.3610000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
         <v>1978</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42">
         <v>2206.3310000000001</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
         <v>3.0459999999999998</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42">
         <v>2209.377</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>21.207999999999998</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <v>1.478</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <v>19.73</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42">
         <v>211.185</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42">
         <v>2017.922</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="6">
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42">
         <v>2017.922</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
         <v>1979</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>2247.3719999999998</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
         <v>3.2930000000000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43">
         <v>2250.665</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>22.515999999999998</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <v>2.1819999999999999</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <v>20.334</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43">
         <v>199.9</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43">
         <v>2071.0990000000002</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="6">
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43">
         <v>2071.0990000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
         <v>1980</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44">
         <v>2286.4389999999999</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
         <v>3.161</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44">
         <v>2289.6</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44">
         <v>25.021000000000001</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44">
         <v>4.0960000000000001</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <v>20.925999999999998</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44">
         <v>216.077</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44">
         <v>2094.4490000000001</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44">
         <v>2094.4490000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
         <v>1981</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>2294.8119999999999</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
         <v>3.161</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>2297.973</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>36.298000000000002</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45">
         <v>3.06</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45">
         <v>33.237000000000002</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45">
         <v>184.108</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45">
         <v>2147.1030000000001</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="6">
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45">
         <v>2147.1030000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
         <v>1982</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46">
         <v>2241.2109999999998</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
         <v>3.161</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46">
         <v>2244.3719999999998</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>32.851999999999997</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <v>3.536</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46">
         <v>29.315999999999999</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46">
         <v>187.24700000000001</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46">
         <v>2086.4409999999998</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="6">
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46">
         <v>2086.4409999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
         <v>1983</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47">
         <v>2310.2849999999999</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
         <v>3.161</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>2313.4459999999999</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>38.667999999999999</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <v>3.3370000000000002</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47">
         <v>35.33</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47">
         <v>197.821</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47">
         <v>2150.9549999999999</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="6">
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47">
         <v>2150.9549999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
         <v>1984</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48">
         <v>2416.3040000000001</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
         <v>3.161</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>2419.4650000000001</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>42.219000000000001</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <v>2.5579999999999998</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48">
         <v>39.661000000000001</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48">
         <v>173.33</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48">
         <v>2285.7959999999998</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="6">
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48">
         <v>2285.7959999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
         <v>1985</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49">
         <v>2469.8409999999999</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
         <v>3.161</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49">
         <v>2473.002</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>45.895000000000003</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <v>4.9649999999999999</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>40.930999999999997</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49">
         <v>189.959</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49">
         <v>2323.9740000000002</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="6">
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49">
         <v>2323.9740000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>1986</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>2487.31</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
         <v>3.161</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50">
         <v>2490.471</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>40.713000000000001</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50">
         <v>4.8159999999999998</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50">
         <v>35.896999999999998</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50">
         <v>157.61500000000001</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50">
         <v>2368.7530000000002</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="6">
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50">
         <v>2368.7530000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
         <v>1987</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51">
         <v>2572.127</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
         <v>3.161</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51">
         <v>2575.288</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51">
         <v>52.219000000000001</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51">
         <v>5.8819999999999997</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51">
         <v>46.337000000000003</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51">
         <v>164.352</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51">
         <v>2457.2719999999999</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="6">
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51">
         <v>2457.2719999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
         <v>1988</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52">
         <v>2704.25</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
         <v>3.161</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52">
         <v>2707.4110000000001</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>38.837000000000003</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52">
         <v>7.0670000000000002</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>31.77</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52">
         <v>161.119</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52">
         <v>2578.0619999999999</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="6">
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52">
         <v>2578.0619999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
         <v>1989</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>2848.2269999999999</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53">
         <v>4.2510000000000003</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53">
         <v>114.828</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53">
         <v>2967.1460000000002</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53">
         <v>26.11</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53">
         <v>15.135</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53">
         <v>10.976000000000001</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53">
         <v>222.48699999999999</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53">
         <v>2646.8090000000002</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53">
         <v>108.82599999999999</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53">
         <v>2755.6350000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
         <v>1990</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54">
         <v>2901.3220000000001</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54">
         <v>5.8369999999999997</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54">
         <v>130.83000000000001</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54">
         <v>3037.8270000000002</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>18.445</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54">
         <v>16.134</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>2.3119999999999998</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54">
         <v>203.05600000000001</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54">
         <v>2712.5549999999998</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54">
         <v>124.529</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54">
         <v>2837.0839999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
         <v>1991</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>2935.5610000000001</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55">
         <v>5.6589999999999998</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>132.57900000000001</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>3073.799</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>21.931000000000001</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55">
         <v>2.3050000000000002</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>19.626000000000001</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55">
         <v>207.36500000000001</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55">
         <v>2762.0030000000002</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55">
         <v>124.057</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55">
         <v>2886.06</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
         <v>1992</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56">
         <v>2934.3739999999998</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56">
         <v>6.2279999999999998</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56">
         <v>143.28</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56">
         <v>3083.8820000000001</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56">
         <v>28.247</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56">
         <v>2.827</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56">
         <v>25.42</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56">
         <v>212.096</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56">
         <v>2763.3649999999998</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56">
         <v>133.84100000000001</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56">
         <v>2897.2069999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
         <v>1993</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>3043.8969999999999</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57">
         <v>7</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57">
         <v>146.29400000000001</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57">
         <v>3197.1909999999998</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57">
         <v>31.358000000000001</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57">
         <v>3.5409999999999999</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>27.817</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57">
         <v>224.30799999999999</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57">
         <v>2861.462</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57">
         <v>139.238</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57">
         <v>3000.7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
         <v>1994</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58">
         <v>3088.7249999999999</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58">
         <v>7.6189999999999998</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58">
         <v>151.178</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58">
         <v>3247.5219999999999</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>46.832999999999998</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>44.823</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58">
         <v>211.45699999999999</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58">
         <v>2934.5630000000001</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58">
         <v>146.32499999999999</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58">
         <v>3080.8879999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
         <v>1995</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59">
         <v>3194.23</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59">
         <v>8.2319999999999993</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59">
         <v>151.02500000000001</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59">
         <v>3353.4870000000001</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59">
         <v>42.853999999999999</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59">
         <v>3.6230000000000002</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59">
         <v>39.231000000000002</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59">
         <v>228.755</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59">
         <v>3013.2869999999998</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59">
         <v>150.67699999999999</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59">
         <v>3163.9630000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
         <v>1996</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60">
         <v>3284.1410000000001</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60">
         <v>151.017</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>3444.1880000000001</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>43.497</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60">
         <v>3.302</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60">
         <v>40.195</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60">
         <v>230.61699999999999</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60">
         <v>3101.127</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60">
         <v>152.63800000000001</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60">
         <v>3253.7649999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
         <v>1997</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61">
         <v>3329.375</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61">
         <v>8.7010000000000005</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61">
         <v>154.09700000000001</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61">
         <v>3492.172</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>43.030999999999999</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61">
         <v>8.9740000000000002</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61">
         <v>34.057000000000002</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61">
         <v>224.38</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61">
         <v>3145.61</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61">
         <v>156.239</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61">
         <v>3301.8490000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
         <v>1998</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62">
         <v>3457.4160000000002</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62">
         <v>8.7479999999999993</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62">
         <v>154.13200000000001</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62">
         <v>3620.2950000000001</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <v>39.512999999999998</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62">
         <v>13.656000000000001</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62">
         <v>25.856999999999999</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62">
         <v>221.05600000000001</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62">
         <v>3264.2310000000002</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62">
         <v>160.86600000000001</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62">
         <v>3425.0970000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
         <v>1999</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63">
         <v>3529.982</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63">
         <v>8.5630000000000006</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63">
         <v>156.26400000000001</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63">
         <v>3694.81</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <v>43.215000000000003</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63">
         <v>14.222</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63">
         <v>28.992999999999999</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63">
         <v>240.08600000000001</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63">
         <v>3312.087</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63">
         <v>171.62899999999999</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63">
         <v>3483.7159999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
         <v>2000</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64">
         <v>3637.529</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64">
         <v>7.9029999999999996</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64">
         <v>156.673</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64">
         <v>3802.105</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>48.591999999999999</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64">
         <v>14.829000000000001</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64">
         <v>33.762999999999998</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64">
         <v>243.511</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64">
         <v>3421.4140000000002</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64">
         <v>170.94300000000001</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64">
         <v>3592.357</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
         <v>2001</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65">
         <v>3580.0529999999999</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65">
         <v>7.4160000000000004</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65">
         <v>149.17500000000001</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65">
         <v>3736.6439999999998</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <v>38.5</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65">
         <v>16.472999999999999</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65">
         <v>22.027000000000001</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65">
         <v>201.56399999999999</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65">
         <v>3394.4580000000001</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65">
         <v>162.649</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65">
         <v>3557.107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
         <v>2002</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66">
         <v>3698.4580000000001</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66">
         <v>7.415</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66">
         <v>152.58000000000001</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66">
         <v>3858.4520000000002</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>36.779000000000003</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66">
         <v>15.795999999999999</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66">
         <v>20.983000000000001</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66">
         <v>247.785</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66">
         <v>3465.4659999999999</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66">
         <v>166.184</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66">
         <v>3631.65</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
         <v>2003</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>3721.1590000000001</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67">
         <v>7.4960000000000004</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67">
         <v>154.53</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67">
         <v>3883.1849999999999</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67">
         <v>30.395</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67">
         <v>23.975000000000001</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67">
         <v>6.42</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67">
         <v>227.57599999999999</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67">
         <v>3493.7339999999999</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67">
         <v>168.29499999999999</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67">
         <v>3662.029</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
         <v>2004</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68">
         <v>3808.36</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68">
         <v>8.27</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68">
         <v>153.92500000000001</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68">
         <v>3970.5549999999998</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68">
         <v>34.21</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68">
         <v>22.898</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68">
         <v>11.311999999999999</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68">
         <v>265.91800000000001</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68">
         <v>3547.4789999999998</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68">
         <v>168.47</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68">
         <v>3715.9490000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
         <v>2005</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69">
         <v>3902.192</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69">
         <v>8.4920000000000009</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69">
         <v>144.739</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69">
         <v>4055.4229999999998</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69">
         <v>43.929000000000002</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69">
         <v>19.151</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69">
         <v>24.777999999999999</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69">
         <v>269.21699999999998</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69">
         <v>3660.9690000000001</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69">
         <v>150.01599999999999</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69">
         <v>3810.9839999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
         <v>2006</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70">
         <v>3908.0770000000002</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>8.3710000000000004</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70">
         <v>148.25399999999999</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70">
         <v>4064.7020000000002</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>42.691000000000003</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70">
         <v>24.271000000000001</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70">
         <v>18.420000000000002</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70">
         <v>266.27699999999999</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70">
         <v>3669.9189999999999</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70">
         <v>146.92699999999999</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70">
         <v>3816.8449999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
         <v>2007</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71">
         <v>4005.3429999999998</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71">
         <v>8.2729999999999997</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71">
         <v>143.12799999999999</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71">
         <v>4156.7449999999999</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71">
         <v>51.396000000000001</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71">
         <v>20.143999999999998</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71">
         <v>31.251999999999999</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71">
         <v>297.76600000000002</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71">
         <v>3764.5610000000001</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71">
         <v>125.67</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71">
         <v>3890.2310000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
         <v>2008</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72">
         <v>3974.3490000000002</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72">
         <v>7.9260000000000002</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72">
         <v>137.113</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72">
         <v>4119.3879999999999</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72">
         <v>57.018999999999998</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72">
         <v>24.198</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72">
         <v>32.820999999999998</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72">
         <v>286.048</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72">
         <v>3733.9650000000001</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72">
         <v>132.197</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72">
         <v>3866.1610000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
         <v>2009</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73">
         <v>3809.837</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73">
         <v>8.1649999999999991</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73">
         <v>132.32900000000001</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73">
         <v>3950.3310000000001</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73">
         <v>52.191000000000003</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73">
         <v>18.138000000000002</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73">
         <v>34.052999999999997</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73">
         <v>260.64999999999998</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73">
         <v>3596.7950000000001</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73">
         <v>126.938</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73">
         <v>3723.7330000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
         <v>2010</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74">
         <v>3972.386</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74">
         <v>8.5920000000000005</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74">
         <v>144.08199999999999</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74">
         <v>4125.0600000000004</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74">
         <v>45.082999999999998</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74">
         <v>19.106000000000002</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74">
         <v>25.977</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74">
         <v>264.28500000000003</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74">
         <v>3754.8409999999999</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74">
         <v>131.91</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74">
         <v>3886.752</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
         <v>2011</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75">
         <v>3948.1860000000001</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75">
         <v>10.08</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75">
         <v>141.875</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75">
         <v>4100.1409999999996</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75">
         <v>52.3</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75">
         <v>15.048999999999999</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75">
         <v>37.250999999999998</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75">
         <v>254.792</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75">
         <v>3749.846</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75">
         <v>132.75399999999999</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75">
         <v>3882.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
         <v>2012</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76">
         <v>3890.3580000000002</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76">
         <v>11.301</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76">
         <v>146.107</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76">
         <v>4047.7649999999999</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76">
         <v>59.256999999999998</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76">
         <v>11.996</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76">
         <v>47.261000000000003</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76">
         <v>262.72000000000003</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76">
         <v>3694.65</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76">
         <v>137.65700000000001</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76">
         <v>3832.306</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
         <v>2013</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77">
         <v>3903.7150000000001</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77">
         <v>12.234</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77">
         <v>150.01499999999999</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77">
         <v>4065.9639999999999</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77">
         <v>69.248999999999995</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77">
         <v>11.372999999999999</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77">
         <v>57.875999999999998</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77">
         <v>255.51</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77">
         <v>3724.8679999999999</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77">
         <v>143.46199999999999</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77">
         <v>3868.33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
         <v>2014</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78">
         <v>3937.0030000000002</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78">
         <v>12.52</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78">
         <v>144.083</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78">
         <v>4093.6060000000002</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78">
         <v>66.510000000000005</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78">
         <v>13.298</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78">
         <v>53.212000000000003</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78">
         <v>243.54400000000001</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78">
         <v>3764.7</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78">
         <v>138.57400000000001</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78">
         <v>3903.2739999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
         <v>2015</v>
       </c>
-      <c r="B79" s="6">
-        <v>3930.5790000000002</v>
-      </c>
-      <c r="C79" s="6">
-        <v>13.029</v>
-      </c>
-      <c r="D79" s="6">
-        <v>143.773</v>
-      </c>
-      <c r="E79" s="6">
-        <v>4087.3809999999999</v>
-      </c>
-      <c r="F79" s="6">
-        <v>75.602999999999994</v>
-      </c>
-      <c r="G79" s="6">
-        <v>9.1449999999999996</v>
-      </c>
-      <c r="H79" s="6">
-        <v>66.457999999999998</v>
-      </c>
-      <c r="I79" s="6">
-        <v>290.56400000000002</v>
-      </c>
-      <c r="J79" s="6">
-        <v>3724.5250000000001</v>
-      </c>
-      <c r="K79" s="6">
-        <v>138.75</v>
-      </c>
-      <c r="L79" s="6">
-        <v>3863.2750000000001</v>
+      <c r="B79">
+        <v>3919.2939999999999</v>
+      </c>
+      <c r="C79">
+        <v>12.595000000000001</v>
+      </c>
+      <c r="D79">
+        <v>145.71199999999999</v>
+      </c>
+      <c r="E79">
+        <v>4077.6010000000001</v>
+      </c>
+      <c r="F79">
+        <v>75.77</v>
+      </c>
+      <c r="G79">
+        <v>9.1</v>
+      </c>
+      <c r="H79">
+        <v>66.671000000000006</v>
+      </c>
+      <c r="I79">
+        <v>244.11199999999999</v>
+      </c>
+      <c r="J79">
+        <v>3758.9920000000002</v>
+      </c>
+      <c r="K79">
+        <v>141.16800000000001</v>
+      </c>
+      <c r="L79">
+        <v>3900.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B80">
+        <v>3918.078</v>
+      </c>
+      <c r="C80">
+        <v>12.706</v>
+      </c>
+      <c r="D80">
+        <v>145.88999999999999</v>
+      </c>
+      <c r="E80">
+        <v>4076.6750000000002</v>
+      </c>
+      <c r="F80">
+        <v>72.715999999999994</v>
+      </c>
+      <c r="G80">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="H80">
+        <v>66.501999999999995</v>
+      </c>
+      <c r="I80">
+        <v>240.87100000000001</v>
+      </c>
+      <c r="J80">
+        <v>3762.462</v>
+      </c>
+      <c r="K80">
+        <v>139.84399999999999</v>
+      </c>
+      <c r="L80">
+        <v>3902.306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B81">
+        <v>3877.453</v>
+      </c>
+      <c r="C81">
+        <v>13.06</v>
+      </c>
+      <c r="D81">
+        <v>143.75800000000001</v>
+      </c>
+      <c r="E81">
+        <v>4034.2710000000002</v>
+      </c>
+      <c r="F81">
+        <v>65.685000000000002</v>
+      </c>
+      <c r="G81">
+        <v>9.3710000000000004</v>
+      </c>
+      <c r="H81">
+        <v>56.314</v>
+      </c>
+      <c r="I81">
+        <v>226.114</v>
+      </c>
+      <c r="J81">
+        <v>3723.3560000000002</v>
+      </c>
+      <c r="K81">
+        <v>141.114</v>
+      </c>
+      <c r="L81">
+        <v>3864.47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B82">
+        <v>4017.9659999999999</v>
+      </c>
+      <c r="C82">
+        <v>13.311999999999999</v>
+      </c>
+      <c r="D82">
+        <v>146.798</v>
+      </c>
+      <c r="E82">
+        <v>4178.0770000000002</v>
+      </c>
+      <c r="F82">
+        <v>58.261000000000003</v>
+      </c>
+      <c r="G82">
+        <v>13.804</v>
+      </c>
+      <c r="H82">
+        <v>44.456000000000003</v>
+      </c>
+      <c r="I82">
+        <v>219.23400000000001</v>
+      </c>
+      <c r="J82">
+        <v>3859.1849999999999</v>
+      </c>
+      <c r="K82">
+        <v>144.114</v>
+      </c>
+      <c r="L82">
+        <v>4003.299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B83">
+        <v>3955.7809999999999</v>
+      </c>
+      <c r="C83">
+        <v>13.624000000000001</v>
+      </c>
+      <c r="D83">
+        <v>148.64500000000001</v>
+      </c>
+      <c r="E83">
+        <v>4118.0510000000004</v>
+      </c>
+      <c r="F83">
+        <v>59.052</v>
+      </c>
+      <c r="G83">
+        <v>20.007999999999999</v>
+      </c>
+      <c r="H83">
+        <v>39.043999999999997</v>
+      </c>
+      <c r="I83">
+        <v>261.5</v>
+      </c>
+      <c r="J83">
+        <v>3749.538</v>
+      </c>
+      <c r="K83">
+        <v>146.05699999999999</v>
+      </c>
+      <c r="L83">
+        <v>3895.5949999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3468,30 +3635,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3508,7 +3677,7 @@
         <v>6.6944071098814603E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3525,7 +3694,7 @@
         <v>5.6301959775455837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3542,7 +3711,7 @@
         <v>6.69968403047973E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3559,7 +3728,7 @@
         <v>6.1157289973365822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3576,7 +3745,7 @@
         <v>6.9824806478379145E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3593,7 +3762,7 @@
         <v>6.8991223394440859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3610,7 +3779,7 @@
         <v>6.8135044422103247E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3627,7 +3796,7 @@
         <v>7.4342197409809851E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3644,7 +3813,7 @@
         <v>7.1973548372324628E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3661,7 +3830,7 @@
         <v>6.8415000431776993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -3678,7 +3847,7 @@
         <v>6.6530543607796436E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3695,7 +3864,7 @@
         <v>6.4533940396931652E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3712,7 +3881,7 @@
         <v>6.7531060123515632E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -3729,7 +3898,7 @@
         <v>6.5453036402503759E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -3746,37 +3915,105 @@
         <v>6.18602525829927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
       <c r="B17" s="5">
         <f>'MER 7.1'!I79</f>
-        <v>290.56400000000002</v>
+        <v>244.11199999999999</v>
       </c>
       <c r="C17" s="5">
         <f>'MER 7.1'!B79</f>
-        <v>3930.5790000000002</v>
+        <v>3919.2939999999999</v>
       </c>
       <c r="D17" s="4">
         <f>B17/C17</f>
-        <v>7.3923968962333539E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="13">
-        <f>AVERAGE(D2:D17)</f>
-        <v>6.7057173983583865E-2</v>
+        <v>6.2284686986993069E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'MER 7.1'!I80</f>
+        <v>240.87100000000001</v>
+      </c>
+      <c r="C18" s="5">
+        <f>'MER 7.1'!B80</f>
+        <v>3918.078</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:D21" si="2">B18/C18</f>
+        <v>6.1476826137713443E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5">
+        <f>'MER 7.1'!I81</f>
+        <v>226.114</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'MER 7.1'!B81</f>
+        <v>3877.453</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8315084670271959E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="5">
+        <f>'MER 7.1'!I82</f>
+        <v>219.23400000000001</v>
+      </c>
+      <c r="C20" s="5">
+        <f>'MER 7.1'!B82</f>
+        <v>4017.9659999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>5.456342836151426E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="5">
+        <f>'MER 7.1'!I83</f>
+        <v>261.5</v>
+      </c>
+      <c r="C21" s="5">
+        <f>'MER 7.1'!B83</f>
+        <v>3955.7809999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6105782903553054E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11">
+        <f>AVERAGE(D2:D21)</f>
+        <v>6.5086831191752695E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3797,15 +4034,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -3916,153 +4153,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>33</v>
+    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="4">
-        <f>Calculations!D21</f>
-        <v>6.7057173983583865E-2</v>
+        <f>Calculations!D25</f>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="C2" s="4">
         <f>$B2</f>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AK2" si="0">$B2</f>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AJ2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" si="0"/>
-        <v>6.7057173983583865E-2</v>
+        <v>6.5086831191752695E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\BTaDLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Documents\eps-eu\InputData\elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A62BA9B-DFA3-4F31-86C7-7C272E3BD7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="17265"/>
+    <workbookView xWindow="-19995" yWindow="2235" windowWidth="19770" windowHeight="12945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Potencia" sheetId="8" r:id="rId2"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Source:</t>
   </si>
@@ -64,9 +67,6 @@
     <t>Potencia Data</t>
   </si>
   <si>
-    <t>EU28 - Electricity balance (GWh)</t>
-  </si>
-  <si>
     <t>Calculated Distribution Loss Percentage</t>
   </si>
   <si>
@@ -83,12 +83,18 @@
   </si>
   <si>
     <t>Tab: Electricity Balance; rows: 25&amp;26</t>
+  </si>
+  <si>
+    <t>EU27 - Electricity balance (GWh)</t>
+  </si>
+  <si>
+    <t>File: Central_2018_UK_pg_det_yearly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -204,7 +210,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,6 +301,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -330,6 +353,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,66 +545,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -572,26 +622,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AZ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.06640625" customWidth="1"/>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" s="8" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -747,529 +797,529 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>217028.20176456464</v>
+        <v>185890.91902720978</v>
       </c>
       <c r="C3">
-        <v>219376.16174418613</v>
+        <v>187304.32674418611</v>
       </c>
       <c r="D3">
-        <v>211319.4940697675</v>
+        <v>180361.63186046516</v>
       </c>
       <c r="E3">
-        <v>217316.36372093024</v>
+        <v>185252.41023255815</v>
       </c>
       <c r="F3">
-        <v>220819.47418604654</v>
+        <v>187650.86953488376</v>
       </c>
       <c r="G3">
-        <v>220106.68341933866</v>
+        <v>192210.59360439423</v>
       </c>
       <c r="H3">
-        <v>214027.48476744181</v>
+        <v>186517.81279069762</v>
       </c>
       <c r="I3">
-        <v>216897.92918604653</v>
+        <v>189072.72418604651</v>
       </c>
       <c r="J3">
-        <v>218868.65697674421</v>
+        <v>190770.98255813954</v>
       </c>
       <c r="K3">
-        <v>208940.19302325582</v>
+        <v>180797.16976744187</v>
       </c>
       <c r="L3">
-        <v>212121.15234515144</v>
+        <v>185513.99718863514</v>
       </c>
       <c r="M3">
-        <v>205094.21894788061</v>
+        <v>177602.2230626955</v>
       </c>
       <c r="N3">
-        <v>209774.93828854986</v>
+        <v>181445.9325442444</v>
       </c>
       <c r="O3">
-        <v>210320.42171839741</v>
+        <v>183651.33326543003</v>
       </c>
       <c r="P3">
-        <v>202089.21215777964</v>
+        <v>174654.1504688836</v>
       </c>
       <c r="Q3">
-        <v>207483.66723227821</v>
+        <v>178359.8051451685</v>
       </c>
       <c r="R3">
-        <v>211088.03205708772</v>
+        <v>181294.57396427891</v>
       </c>
       <c r="S3">
-        <v>211163.73085508181</v>
+        <v>181823.1999539338</v>
       </c>
       <c r="T3">
-        <v>209157.96206420369</v>
+        <v>180506.60896212255</v>
       </c>
       <c r="U3">
-        <v>206943.70293895659</v>
+        <v>178988.98644971329</v>
       </c>
       <c r="V3">
-        <v>205232.0862600001</v>
+        <v>178014.04951468456</v>
       </c>
       <c r="W3">
-        <v>204281.01286421565</v>
+        <v>177607.14549645549</v>
       </c>
       <c r="X3">
-        <v>203430.40212511536</v>
+        <v>177379.67694948078</v>
       </c>
       <c r="Y3">
-        <v>201349.88882897451</v>
+        <v>175985.34795745445</v>
       </c>
       <c r="Z3">
-        <v>199944.77619342157</v>
+        <v>175119.91302955168</v>
       </c>
       <c r="AA3">
-        <v>198681.18954786501</v>
+        <v>174362.60281991915</v>
       </c>
       <c r="AB3">
-        <v>197955.33612703299</v>
+        <v>173954.80174730317</v>
       </c>
       <c r="AC3">
-        <v>197243.02684463238</v>
+        <v>173472.15459573959</v>
       </c>
       <c r="AD3">
-        <v>196952.92819339735</v>
+        <v>173370.91484976248</v>
       </c>
       <c r="AE3">
-        <v>196616.16257687579</v>
+        <v>173253.8111454621</v>
       </c>
       <c r="AF3">
-        <v>196044.50597798367</v>
+        <v>172800.91296743666</v>
       </c>
       <c r="AG3">
-        <v>195293.81431711718</v>
+        <v>172191.83430205891</v>
       </c>
       <c r="AH3">
-        <v>195858.41764484943</v>
+        <v>172677.28785541485</v>
       </c>
       <c r="AI3">
-        <v>196071.14329142735</v>
+        <v>172782.49615009592</v>
       </c>
       <c r="AJ3">
-        <v>196014.47472977539</v>
+        <v>172561.0161748291</v>
       </c>
       <c r="AK3">
-        <v>196491.25635950625</v>
+        <v>172817.92214755566</v>
       </c>
       <c r="AL3">
-        <v>197258.87058860256</v>
+        <v>173329.49017028921</v>
       </c>
       <c r="AM3">
-        <v>198436.01229285315</v>
+        <v>174129.50937778977</v>
       </c>
       <c r="AN3">
-        <v>199674.54741820501</v>
+        <v>175045.18253572617</v>
       </c>
       <c r="AO3">
-        <v>201005.24814632718</v>
+        <v>176085.85861473411</v>
       </c>
       <c r="AP3">
-        <v>202483.7814553841</v>
+        <v>177256.32448998454</v>
       </c>
       <c r="AQ3">
-        <v>204350.82471101233</v>
+        <v>178804.68854397655</v>
       </c>
       <c r="AR3">
-        <v>206031.63659648265</v>
+        <v>180183.12943058135</v>
       </c>
       <c r="AS3">
-        <v>207432.77774916097</v>
+        <v>181343.125363075</v>
       </c>
       <c r="AT3">
-        <v>208822.42272901136</v>
+        <v>182456.86203022164</v>
       </c>
       <c r="AU3">
-        <v>210301.86914758681</v>
+        <v>183536.15448119456</v>
       </c>
       <c r="AV3">
-        <v>211866.48125009646</v>
+        <v>184813.44232076689</v>
       </c>
       <c r="AW3">
-        <v>213385.66049550698</v>
+        <v>186034.1076974585</v>
       </c>
       <c r="AX3">
-        <v>214757.04425452117</v>
+        <v>187024.11666272618</v>
       </c>
       <c r="AY3">
-        <v>216250.4539798141</v>
+        <v>188215.08481829744</v>
       </c>
       <c r="AZ3">
-        <v>217624.89081172715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+        <v>189297.8606713576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2528386.8413430927</v>
+        <v>2198618.1929556685</v>
       </c>
       <c r="C4">
-        <v>2593205.3310465119</v>
+        <v>2260345.821162791</v>
       </c>
       <c r="D4">
-        <v>2622476.1189534888</v>
+        <v>2288731.9329069769</v>
       </c>
       <c r="E4">
-        <v>2686489.7279069764</v>
+        <v>2349583.9139534878</v>
       </c>
       <c r="F4">
-        <v>2746390.7681395346</v>
+        <v>2407136.116976744</v>
       </c>
       <c r="G4">
-        <v>2783705.0279789143</v>
+        <v>2434893.6473607589</v>
       </c>
       <c r="H4">
-        <v>2834709.6811627913</v>
+        <v>2489359.4653488379</v>
       </c>
       <c r="I4">
-        <v>2851422.3123255814</v>
+        <v>2509541.9643023256</v>
       </c>
       <c r="J4">
-        <v>2864316.8112790696</v>
+        <v>2522423.9036046509</v>
       </c>
       <c r="K4">
-        <v>2710906.574302325</v>
+        <v>2389095.1697674412</v>
       </c>
       <c r="L4">
-        <v>2839830.3793260427</v>
+        <v>2510932.53195599</v>
       </c>
       <c r="M4">
-        <v>2781997.3585818252</v>
+        <v>2464110.9670211952</v>
       </c>
       <c r="N4">
-        <v>2792333.3998083603</v>
+        <v>2474306.4779876219</v>
       </c>
       <c r="O4">
-        <v>2767238.9644734375</v>
+        <v>2450910.5725532961</v>
       </c>
       <c r="P4">
-        <v>2706526.4871656094</v>
+        <v>2403562.1852317555</v>
       </c>
       <c r="Q4">
-        <v>2741988.1899703769</v>
+        <v>2439191.9123678105</v>
       </c>
       <c r="R4">
-        <v>2765676.4661469394</v>
+        <v>2460798.6261265981</v>
       </c>
       <c r="S4">
-        <v>2784934.9210217511</v>
+        <v>2480405.0569103057</v>
       </c>
       <c r="T4">
-        <v>2778382.9526534118</v>
+        <v>2476330.5099030756</v>
       </c>
       <c r="U4">
-        <v>2774970.395606399</v>
+        <v>2474449.2737449058</v>
       </c>
       <c r="V4">
-        <v>2782786.057432998</v>
+        <v>2483321.4086599997</v>
       </c>
       <c r="W4">
-        <v>2803234.9927103114</v>
+        <v>2502085.5751254796</v>
       </c>
       <c r="X4">
-        <v>2828583.8179191612</v>
+        <v>2525629.3410594575</v>
       </c>
       <c r="Y4">
-        <v>2838871.2359850961</v>
+        <v>2534703.6260747798</v>
       </c>
       <c r="Z4">
-        <v>2858180.4955705898</v>
+        <v>2550961.840323214</v>
       </c>
       <c r="AA4">
-        <v>2877574.1590687172</v>
+        <v>2567522.4495825293</v>
       </c>
       <c r="AB4">
-        <v>2902656.7181224748</v>
+        <v>2587976.2721975846</v>
       </c>
       <c r="AC4">
-        <v>2925512.334270786</v>
+        <v>2605629.8216055217</v>
       </c>
       <c r="AD4">
-        <v>2951456.5705414028</v>
+        <v>2626638.3077441482</v>
       </c>
       <c r="AE4">
-        <v>2971651.0248761405</v>
+        <v>2643343.0344365947</v>
       </c>
       <c r="AF4">
-        <v>2986540.2534403419</v>
+        <v>2654101.653601754</v>
       </c>
       <c r="AG4">
-        <v>2994997.2835872099</v>
+        <v>2659696.4271210991</v>
       </c>
       <c r="AH4">
-        <v>3019474.6669461876</v>
+        <v>2679151.0539736128</v>
       </c>
       <c r="AI4">
-        <v>3036797.9859510856</v>
+        <v>2691642.1998726409</v>
       </c>
       <c r="AJ4">
-        <v>3048781.3329136451</v>
+        <v>2698571.1478789761</v>
       </c>
       <c r="AK4">
-        <v>3066793.3920396524</v>
+        <v>2711212.9601077675</v>
       </c>
       <c r="AL4">
-        <v>3088447.3234801879</v>
+        <v>2727281.3944133762</v>
       </c>
       <c r="AM4">
-        <v>3114375.9802517919</v>
+        <v>2746350.4898617445</v>
       </c>
       <c r="AN4">
-        <v>3140835.5550876851</v>
+        <v>2766724.200705783</v>
       </c>
       <c r="AO4">
-        <v>3167407.1781268385</v>
+        <v>2787857.0217624293</v>
       </c>
       <c r="AP4">
-        <v>3196884.64584806</v>
+        <v>2811739.7895229333</v>
       </c>
       <c r="AQ4">
-        <v>3230550.2575703077</v>
+        <v>2839773.1096237986</v>
       </c>
       <c r="AR4">
-        <v>3261475.779410149</v>
+        <v>2865244.8594552097</v>
       </c>
       <c r="AS4">
-        <v>3288240.7501379736</v>
+        <v>2887420.2803410199</v>
       </c>
       <c r="AT4">
-        <v>3316511.8272889699</v>
+        <v>2910516.1497898763</v>
       </c>
       <c r="AU4">
-        <v>3345211.563482543</v>
+        <v>2932467.8190216823</v>
       </c>
       <c r="AV4">
-        <v>3376168.5139612993</v>
+        <v>2958147.5852745809</v>
       </c>
       <c r="AW4">
-        <v>3407055.6197675345</v>
+        <v>2983982.7922188127</v>
       </c>
       <c r="AX4">
-        <v>3434641.4760266938</v>
+        <v>3004663.1641574157</v>
       </c>
       <c r="AY4">
-        <v>3464777.6757375319</v>
+        <v>3029362.4441876449</v>
       </c>
       <c r="AZ4">
-        <v>3493726.4174170489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+        <v>3053060.6868686839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>B3/SUM(B3:B4)</f>
-        <v>7.9051144674613855E-2</v>
+        <v>7.7957730626002544E-2</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:AZ6" si="0">C3/SUM(C3:C4)</f>
-        <v>7.7998153051386548E-2</v>
+        <v>7.6524141697436987E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>7.4571183997394819E-2</v>
+        <v>7.3047710477287225E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>7.4838455758972605E-2</v>
+        <v>7.3082592538610575E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>7.4419894834609715E-2</v>
+        <v>7.2318410147091616E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.3275792415390964E-2</v>
+        <v>7.3164433526162392E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>7.020201254447514E-2</v>
+        <v>6.9703425607163264E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>7.0689469192821389E-2</v>
+        <v>7.0062882631071549E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>7.0987833599436431E-2</v>
+        <v>7.0312303598634079E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>7.155861580182632E-2</v>
+        <v>7.0352040428340978E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>6.950344726772173E-2</v>
+        <v>6.8799434805586313E-2</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>6.8660171147980481E-2</v>
+        <v>6.7229941437001922E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>6.9875872108442941E-2</v>
+        <v>6.8321855540707688E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>7.0635172784039024E-2</v>
+        <v>6.9708490379298146E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>6.947951639152268E-2</v>
+        <v>6.7742240265272674E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>7.0346040673553115E-2</v>
+        <v>6.8139935479339428E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>7.0911901893631002E-2</v>
+        <v>6.8617781521879376E-2</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>7.0479565391748183E-2</v>
+        <v>6.8297374383704423E-2</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>7.0010074517748808E-2</v>
+        <v>6.7940412184252175E-2</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>6.9399619204291746E-2</v>
+        <v>6.7455493174574624E-2</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>6.8685020100428984E-2</v>
+        <v>6.6888993256332338E-2</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>6.7923499820308278E-2</v>
+        <v>6.6278922254651013E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>6.7094145133047775E-2</v>
+        <v>6.5623042974581089E-2</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>6.6228698690884977E-2</v>
+        <v>6.4922737224134844E-2</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>6.5381486507283565E-2</v>
+        <v>6.4238687197907554E-2</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>6.4585402390999039E-2</v>
+        <v>6.3592236540748526E-2</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>6.3843954891334306E-2</v>
+        <v>6.2983035090315331E-2</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>6.3163137689459942E-2</v>
+        <v>6.2420219222346668E-2</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>6.2556325113535455E-2</v>
+        <v>6.1917979930492077E-2</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>6.2057948696851037E-2</v>
+        <v>6.1511753596265484E-2</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>6.1599146856284932E-2</v>
+        <v>6.1127297067458806E-2</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>6.121504537482611E-2</v>
+        <v>6.0804600466659781E-2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>6.0913881234721579E-2</v>
+        <v>6.0549678016267913E-2</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>6.0649267091541184E-2</v>
+        <v>6.0320139115545603E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>6.0408878200608168E-2</v>
+        <v>6.0102080404124264E-2</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>6.0212723537892185E-2</v>
+        <v>5.99223549272161E-2</v>
       </c>
       <c r="AL6">
         <f t="shared" si="0"/>
-        <v>6.0035456287809735E-2</v>
+        <v>5.9756202078503809E-2</v>
       </c>
       <c r="AM6">
         <f t="shared" si="0"/>
-        <v>5.9899569531692627E-2</v>
+        <v>5.9623592499565649E-2</v>
       </c>
       <c r="AN6">
         <f t="shared" si="0"/>
-        <v>5.977366967650203E-2</v>
+        <v>5.9503366760464908E-2</v>
       </c>
       <c r="AO6">
         <f t="shared" si="0"/>
-        <v>5.967358586451979E-2</v>
+        <v>5.9409329302704747E-2</v>
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>5.9565117987521218E-2</v>
+        <v>5.9302962509377978E-2</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>5.949249186974867E-2</v>
+        <v>5.9234745797344668E-2</v>
       </c>
       <c r="AR6">
         <f t="shared" si="0"/>
-        <v>5.941779263265709E-2</v>
+        <v>5.9165125587653009E-2</v>
       </c>
       <c r="AS6">
         <f t="shared" si="0"/>
-        <v>5.9339859999608752E-2</v>
+        <v>5.9093224660461484E-2</v>
       </c>
       <c r="AT6">
         <f t="shared" si="0"/>
-        <v>5.9234786808639847E-2</v>
+        <v>5.8990770799791967E-2</v>
       </c>
       <c r="AU6">
         <f t="shared" si="0"/>
-        <v>5.9148101429620993E-2</v>
+        <v>5.890112979376954E-2</v>
       </c>
       <c r="AV6">
         <f t="shared" si="0"/>
-        <v>5.9048053191469482E-2</v>
+        <v>5.880233343592111E-2</v>
       </c>
       <c r="AW6">
         <f t="shared" si="0"/>
-        <v>5.8939130337173573E-2</v>
+        <v>5.8685525525864597E-2</v>
       </c>
       <c r="AX6">
         <f t="shared" si="0"/>
-        <v>5.8847243747436065E-2</v>
+        <v>5.8597255998923591E-2</v>
       </c>
       <c r="AY6">
         <f t="shared" si="0"/>
-        <v>5.8747297320006969E-2</v>
+        <v>5.8495897339401713E-2</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="0"/>
-        <v>5.8637642394351389E-2</v>
+        <v>5.8382766093212232E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1278,23 +1328,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AK2"/>
+      <selection activeCell="X18" sqref="A17:X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1407,153 +1457,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
         <f>Potencia!Q6</f>
-        <v>7.0346040673553115E-2</v>
+        <v>6.8139935479339428E-2</v>
       </c>
       <c r="C2" s="4">
         <f>Potencia!R6</f>
-        <v>7.0911901893631002E-2</v>
+        <v>6.8617781521879376E-2</v>
       </c>
       <c r="D2" s="4">
         <f>Potencia!S6</f>
-        <v>7.0479565391748183E-2</v>
+        <v>6.8297374383704423E-2</v>
       </c>
       <c r="E2" s="4">
         <f>Potencia!T6</f>
-        <v>7.0010074517748808E-2</v>
+        <v>6.7940412184252175E-2</v>
       </c>
       <c r="F2" s="4">
         <f>Potencia!U6</f>
-        <v>6.9399619204291746E-2</v>
+        <v>6.7455493174574624E-2</v>
       </c>
       <c r="G2" s="4">
         <f>Potencia!V6</f>
-        <v>6.8685020100428984E-2</v>
+        <v>6.6888993256332338E-2</v>
       </c>
       <c r="H2" s="4">
         <f>Potencia!W6</f>
-        <v>6.7923499820308278E-2</v>
+        <v>6.6278922254651013E-2</v>
       </c>
       <c r="I2" s="4">
         <f>Potencia!X6</f>
-        <v>6.7094145133047775E-2</v>
+        <v>6.5623042974581089E-2</v>
       </c>
       <c r="J2" s="4">
         <f>Potencia!Y6</f>
-        <v>6.6228698690884977E-2</v>
+        <v>6.4922737224134844E-2</v>
       </c>
       <c r="K2" s="4">
         <f>Potencia!Z6</f>
-        <v>6.5381486507283565E-2</v>
+        <v>6.4238687197907554E-2</v>
       </c>
       <c r="L2" s="4">
         <f>Potencia!AA6</f>
-        <v>6.4585402390999039E-2</v>
+        <v>6.3592236540748526E-2</v>
       </c>
       <c r="M2" s="4">
         <f>Potencia!AB6</f>
-        <v>6.3843954891334306E-2</v>
+        <v>6.2983035090315331E-2</v>
       </c>
       <c r="N2" s="4">
         <f>Potencia!AC6</f>
-        <v>6.3163137689459942E-2</v>
+        <v>6.2420219222346668E-2</v>
       </c>
       <c r="O2" s="4">
         <f>Potencia!AD6</f>
-        <v>6.2556325113535455E-2</v>
+        <v>6.1917979930492077E-2</v>
       </c>
       <c r="P2" s="4">
         <f>Potencia!AE6</f>
-        <v>6.2057948696851037E-2</v>
+        <v>6.1511753596265484E-2</v>
       </c>
       <c r="Q2" s="4">
         <f>Potencia!AF6</f>
-        <v>6.1599146856284932E-2</v>
+        <v>6.1127297067458806E-2</v>
       </c>
       <c r="R2" s="4">
         <f>Potencia!AG6</f>
-        <v>6.121504537482611E-2</v>
+        <v>6.0804600466659781E-2</v>
       </c>
       <c r="S2" s="4">
         <f>Potencia!AH6</f>
-        <v>6.0913881234721579E-2</v>
+        <v>6.0549678016267913E-2</v>
       </c>
       <c r="T2" s="4">
         <f>Potencia!AI6</f>
-        <v>6.0649267091541184E-2</v>
+        <v>6.0320139115545603E-2</v>
       </c>
       <c r="U2" s="4">
         <f>Potencia!AJ6</f>
-        <v>6.0408878200608168E-2</v>
+        <v>6.0102080404124264E-2</v>
       </c>
       <c r="V2" s="4">
         <f>Potencia!AK6</f>
-        <v>6.0212723537892185E-2</v>
+        <v>5.99223549272161E-2</v>
       </c>
       <c r="W2" s="4">
         <f>Potencia!AL6</f>
-        <v>6.0035456287809735E-2</v>
+        <v>5.9756202078503809E-2</v>
       </c>
       <c r="X2" s="4">
         <f>Potencia!AM6</f>
-        <v>5.9899569531692627E-2</v>
+        <v>5.9623592499565649E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>Potencia!AN6</f>
-        <v>5.977366967650203E-2</v>
+        <v>5.9503366760464908E-2</v>
       </c>
       <c r="Z2" s="4">
         <f>Potencia!AO6</f>
-        <v>5.967358586451979E-2</v>
+        <v>5.9409329302704747E-2</v>
       </c>
       <c r="AA2" s="4">
         <f>Potencia!AP6</f>
-        <v>5.9565117987521218E-2</v>
+        <v>5.9302962509377978E-2</v>
       </c>
       <c r="AB2" s="4">
         <f>Potencia!AQ6</f>
-        <v>5.949249186974867E-2</v>
+        <v>5.9234745797344668E-2</v>
       </c>
       <c r="AC2" s="4">
         <f>Potencia!AR6</f>
-        <v>5.941779263265709E-2</v>
+        <v>5.9165125587653009E-2</v>
       </c>
       <c r="AD2" s="4">
         <f>Potencia!AS6</f>
-        <v>5.9339859999608752E-2</v>
+        <v>5.9093224660461484E-2</v>
       </c>
       <c r="AE2" s="4">
         <f>Potencia!AT6</f>
-        <v>5.9234786808639847E-2</v>
+        <v>5.8990770799791967E-2</v>
       </c>
       <c r="AF2" s="4">
         <f>Potencia!AU6</f>
-        <v>5.9148101429620993E-2</v>
+        <v>5.890112979376954E-2</v>
       </c>
       <c r="AG2" s="4">
         <f>Potencia!AV6</f>
-        <v>5.9048053191469482E-2</v>
+        <v>5.880233343592111E-2</v>
       </c>
       <c r="AH2" s="4">
         <f>Potencia!AW6</f>
-        <v>5.8939130337173573E-2</v>
+        <v>5.8685525525864597E-2</v>
       </c>
       <c r="AI2" s="4">
         <f>Potencia!AX6</f>
-        <v>5.8847243747436065E-2</v>
+        <v>5.8597255998923591E-2</v>
       </c>
       <c r="AJ2" s="4">
         <f>Potencia!AY6</f>
-        <v>5.8747297320006969E-2</v>
+        <v>5.8495897339401713E-2</v>
       </c>
       <c r="AK2" s="4">
         <f>Potencia!AZ6</f>
-        <v>5.8637642394351389E-2</v>
+        <v>5.8382766093212232E-2</v>
       </c>
     </row>
   </sheetData>
